--- a/data-raw/metadata/feather_recapture_metadata.xlsx
+++ b/data-raw/metadata/feather_recapture_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-feather-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C3C942-AE71-EF4B-B57B-930E223B58FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701BD459-587A-B244-B578-A00C84C3436B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31940" yWindow="-21000" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,16 +100,10 @@
     <t>commonName</t>
   </si>
   <si>
-    <t>Common name of species</t>
-  </si>
-  <si>
     <t>releaseID</t>
   </si>
   <si>
     <t>Foreign Key to the CAMP Release table</t>
-  </si>
-  <si>
-    <t>Run as assigned at the time of the capture.</t>
   </si>
   <si>
     <t>fishOrigin</t>
@@ -208,15 +202,6 @@
     <t>markCode</t>
   </si>
   <si>
-    <t>type of mark on fish</t>
-  </si>
-  <si>
-    <t>color of mark on fish</t>
-  </si>
-  <si>
-    <t>position of mark on body of fish</t>
-  </si>
-  <si>
     <t>code identifying the type of mark</t>
   </si>
   <si>
@@ -236,6 +221,21 @@
   </si>
   <si>
     <t>Name of the trap or trap location. Levels = c("Eye riffle_north", "Herringer_west", "Herringer_east", "#Steep Riffle_RST", "Sunset West bank", "Sunset East bank", "Gateway_main1", "Live Oak", "Eye riffle_Side Channel", "Herringer_Upper_west", "Steep Riffle_10' ext", "Gateway Main 400' Up River", "Gateway_Rootball")</t>
+  </si>
+  <si>
+    <t>Common name of species. Levels = "Chinook salmon"</t>
+  </si>
+  <si>
+    <t>Run as assigned at the time of the capture. Levels = c("Not recorded", "Fall", "Spring")</t>
+  </si>
+  <si>
+    <t>type of mark on fish. Levels = c("Elastomer", "Pigment / dye", "Fin clip")</t>
+  </si>
+  <si>
+    <t>color of mark on fish. Levels = c("White", "Brown", "Orange", "Green", "Red", "Blue", "yellow", "Purple / Violet", "Pink", "Not applicable (n/a)", "Fluorescent red", "Fluorescent blue")</t>
+  </si>
+  <si>
+    <t>position of mark on body of fish. Levels = c("Nose", "Wholte body", "Adipose fin", "Not recorded")</t>
   </si>
 </sst>
 </file>
@@ -625,7 +625,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
@@ -739,7 +739,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -774,10 +774,10 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
@@ -812,10 +812,10 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -850,10 +850,10 @@
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -888,10 +888,10 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -926,10 +926,10 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
@@ -964,28 +964,28 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
@@ -1008,28 +1008,28 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
@@ -1052,26 +1052,26 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
@@ -1094,10 +1094,10 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
@@ -1132,26 +1132,26 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="6"/>
       <c r="J15" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="5"/>
@@ -1172,10 +1172,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
@@ -1210,10 +1210,10 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>14</v>
@@ -1248,10 +1248,10 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>14</v>
@@ -1286,10 +1286,10 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>14</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>14</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>14</v>
@@ -1400,10 +1400,10 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>14</v>
@@ -28470,13 +28470,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>

--- a/data-raw/metadata/feather_recapture_metadata.xlsx
+++ b/data-raw/metadata/feather_recapture_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-feather-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701BD459-587A-B244-B578-A00C84C3436B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97E104D-515B-9743-A8D3-A2448F86D2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31940" yWindow="-21000" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,9 +136,6 @@
     <t>numeric</t>
   </si>
   <si>
-    <t>millimeters</t>
-  </si>
-  <si>
     <t>real</t>
   </si>
   <si>
@@ -236,6 +233,9 @@
   </si>
   <si>
     <t>position of mark on body of fish. Levels = c("Nose", "Wholte body", "Adipose fin", "Not recorded")</t>
+  </si>
+  <si>
+    <t>millimeter</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -625,7 +625,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
@@ -739,7 +739,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -812,10 +812,10 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -982,10 +982,10 @@
         <v>34</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
@@ -1008,10 +1008,10 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>34</v>
@@ -1026,10 +1026,10 @@
         <v>34</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>34</v>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
@@ -1094,10 +1094,10 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
@@ -1132,26 +1132,26 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="6"/>
       <c r="J15" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="5"/>
@@ -1172,10 +1172,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
@@ -1210,10 +1210,10 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>14</v>
@@ -1248,10 +1248,10 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>14</v>
@@ -1286,10 +1286,10 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>14</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>14</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>14</v>
@@ -1400,10 +1400,10 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>14</v>
@@ -28470,13 +28470,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>

--- a/data-raw/metadata/feather_recapture_metadata.xlsx
+++ b/data-raw/metadata/feather_recapture_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-feather-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97E104D-515B-9743-A8D3-A2448F86D2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78A0DC8-C46C-DC4C-B7B3-64AA2E5A03B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31940" yWindow="-21000" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="71">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>millimeter</t>
+  </si>
+  <si>
+    <t>number of fish</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1069,7 +1072,9 @@
       <c r="F13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="H13" s="3" t="s">
         <v>41</v>
       </c>

--- a/data-raw/metadata/feather_recapture_metadata.xlsx
+++ b/data-raw/metadata/feather_recapture_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-feather-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78A0DC8-C46C-DC4C-B7B3-64AA2E5A03B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E81033-22CC-4A48-BE63-5F32204F527B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31940" yWindow="-21000" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,6 +245,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -304,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -330,6 +333,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,9 +551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z986"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -565,7 +569,7 @@
     <col min="9" max="9" width="14.1640625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="17.6640625" customWidth="1"/>
-    <col min="12" max="13" width="9.1640625" customWidth="1"/>
+    <col min="12" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="26" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -993,8 +997,12 @@
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="L11" s="3">
+        <v>45</v>
+      </c>
+      <c r="M11" s="3">
+        <v>75</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1081,8 +1089,12 @@
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>349</v>
+      </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1159,8 +1171,12 @@
         <v>46</v>
       </c>
       <c r="K15" s="6"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="L15" s="13">
+        <v>36196.427083333336</v>
+      </c>
+      <c r="M15" s="13">
+        <v>44673.492974537039</v>
+      </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>

--- a/data-raw/metadata/feather_recapture_metadata.xlsx
+++ b/data-raw/metadata/feather_recapture_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-feather-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E81033-22CC-4A48-BE63-5F32204F527B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BF45B4-654E-D242-9D1E-69459AB8DA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31940" yWindow="-21000" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7880" yWindow="-19160" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="73">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>catch</t>
-  </si>
-  <si>
-    <t>enumerated</t>
   </si>
   <si>
     <t>catchRawID</t>
@@ -240,6 +237,15 @@
   <si>
     <t>number of fish</t>
   </si>
+  <si>
+    <t>enumerated</t>
+  </si>
+  <si>
+    <t>Feather River RST program</t>
+  </si>
+  <si>
+    <t>projectDescriptionID</t>
+  </si>
 </sst>
 </file>
 
@@ -331,9 +337,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,9 +557,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -632,16 +638,16 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -667,19 +673,19 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -705,19 +711,19 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -743,10 +749,10 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -755,7 +761,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -781,19 +787,19 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -819,10 +825,10 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -831,7 +837,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -857,10 +863,10 @@
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -869,7 +875,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -895,10 +901,10 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -907,7 +913,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -933,10 +939,10 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
@@ -945,7 +951,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -971,28 +977,28 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
@@ -1019,28 +1025,28 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
@@ -1063,28 +1069,28 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
@@ -1111,10 +1117,10 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
@@ -1123,7 +1129,7 @@
         <v>15</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1149,32 +1155,32 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="6"/>
       <c r="J15" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K15" s="6"/>
-      <c r="L15" s="13">
+      <c r="L15" s="11">
         <v>36196.427083333336</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="11">
         <v>44673.492974537039</v>
       </c>
       <c r="N15" s="4"/>
@@ -1193,10 +1199,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
@@ -1205,7 +1211,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -1231,10 +1237,10 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>14</v>
@@ -1243,7 +1249,7 @@
         <v>15</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1269,10 +1275,10 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>14</v>
@@ -1281,7 +1287,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1307,10 +1313,10 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>14</v>
@@ -1319,7 +1325,7 @@
         <v>15</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1345,10 +1351,10 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>14</v>
@@ -1357,7 +1363,7 @@
         <v>15</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1383,10 +1389,10 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>14</v>
@@ -1395,7 +1401,7 @@
         <v>15</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1421,10 +1427,10 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>14</v>
@@ -1433,7 +1439,7 @@
         <v>15</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1458,7 +1464,7 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
@@ -1486,7 +1492,7 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
@@ -1514,7 +1520,7 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
@@ -1542,7 +1548,7 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
@@ -28477,8 +28483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28491,13 +28497,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -28524,9 +28530,15 @@
       <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="A2" s="9">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>

--- a/data-raw/metadata/feather_recapture_metadata.xlsx
+++ b/data-raw/metadata/feather_recapture_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-feather-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BF45B4-654E-D242-9D1E-69459AB8DA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEA6190-6F90-3044-A8BD-456B83BB3D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7880" yWindow="-19160" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9060" yWindow="-20340" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="72">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -242,9 +242,6 @@
   </si>
   <si>
     <t>Feather River RST program</t>
-  </si>
-  <si>
-    <t>projectDescriptionID</t>
   </si>
 </sst>
 </file>
@@ -557,9 +554,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z986"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1051,8 +1048,12 @@
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -28483,8 +28484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28537,7 +28538,7 @@
         <v>71</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>

--- a/data-raw/metadata/feather_recapture_metadata.xlsx
+++ b/data-raw/metadata/feather_recapture_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-feather-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEA6190-6F90-3044-A8BD-456B83BB3D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A000603-B094-3349-9240-E23D75CEB22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9060" yWindow="-20340" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>nominal</t>
-  </si>
-  <si>
-    <t>catch</t>
   </si>
   <si>
     <t>catchRawID</t>
@@ -242,6 +239,9 @@
   </si>
   <si>
     <t>Feather River RST program</t>
+  </si>
+  <si>
+    <t>recapture</t>
   </si>
 </sst>
 </file>
@@ -556,7 +556,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -635,16 +635,16 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -670,19 +670,19 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -708,19 +708,19 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -746,19 +746,19 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -784,19 +784,19 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -822,19 +822,19 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -860,19 +860,19 @@
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -898,19 +898,19 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -936,19 +936,19 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -974,28 +974,28 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
@@ -1022,28 +1022,28 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>37</v>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
@@ -1070,28 +1070,28 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>39</v>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="F13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
@@ -1118,19 +1118,19 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1156,26 +1156,26 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="6"/>
       <c r="J15" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="11">
@@ -1200,19 +1200,19 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -1238,19 +1238,19 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1276,19 +1276,19 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1314,19 +1314,19 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1352,19 +1352,19 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1390,19 +1390,19 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1428,19 +1428,19 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -28498,13 +28498,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -28535,7 +28535,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>

--- a/data-raw/metadata/feather_recapture_metadata.xlsx
+++ b/data-raw/metadata/feather_recapture_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-feather-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A000603-B094-3349-9240-E23D75CEB22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D6D12C-0F30-C24A-BE71-6312AAE4ABA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="68">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -133,12 +133,6 @@
     <t>real</t>
   </si>
   <si>
-    <t>totalLength</t>
-  </si>
-  <si>
-    <t>Total length of the fish measured in millimeters</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -146,9 +140,6 @@
   </si>
   <si>
     <t>whole</t>
-  </si>
-  <si>
-    <t>Whether the count (n) is an actual count or estimate. Levels = c("Yes", "No")</t>
   </si>
   <si>
     <t>visitTime</t>
@@ -178,9 +169,6 @@
     <t>run</t>
   </si>
   <si>
-    <t>actualCountID</t>
-  </si>
-  <si>
     <t>markType</t>
   </si>
   <si>
@@ -191,9 +179,6 @@
   </si>
   <si>
     <t>markCode</t>
-  </si>
-  <si>
-    <t>code identifying the type of mark</t>
   </si>
   <si>
     <t>code</t>
@@ -242,6 +227,9 @@
   </si>
   <si>
     <t>recapture</t>
+  </si>
+  <si>
+    <t>Code associated with tag</t>
   </si>
 </sst>
 </file>
@@ -335,8 +323,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,11 +540,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z986"/>
+  <dimension ref="A1:Z984"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D22"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -635,16 +623,16 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -679,7 +667,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>18</v>
@@ -717,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>18</v>
@@ -749,13 +737,13 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
@@ -793,7 +781,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
@@ -822,16 +810,16 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>18</v>
@@ -869,7 +857,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>18</v>
@@ -907,7 +895,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>18</v>
@@ -945,7 +933,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>18</v>
@@ -983,7 +971,7 @@
         <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>33</v>
@@ -992,7 +980,7 @@
         <v>32</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>34</v>
@@ -1031,7 +1019,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>33</v>
@@ -1040,10 +1028,10 @@
         <v>32</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
@@ -1052,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1070,184 +1058,174 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>32</v>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="5" t="s">
+        <v>41</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>68</v>
+      <c r="K13" s="6"/>
+      <c r="L13" s="11">
+        <v>36196.427083333336</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>39</v>
+      <c r="M13" s="11">
+        <v>44673.492974537039</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>349</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="11">
-        <v>36196.427083333336</v>
-      </c>
-      <c r="M15" s="11">
-        <v>44673.492974537039</v>
-      </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>18</v>
@@ -1279,13 +1257,13 @@
         <v>48</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>18</v>
@@ -1314,16 +1292,16 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>18</v>
@@ -1352,16 +1330,16 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>18</v>
@@ -1389,21 +1367,11 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A21" s="12"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="1"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -1427,21 +1395,11 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A22" s="12"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1521,7 +1479,7 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
@@ -1549,7 +1507,7 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
@@ -2473,7 +2431,7 @@
       <c r="Z58" s="1"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="4"/>
+      <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="2"/>
@@ -2501,7 +2459,7 @@
       <c r="Z59" s="1"/>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="4"/>
+      <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="2"/>
@@ -28400,78 +28358,18 @@
       <c r="Y984" s="1"/>
       <c r="Z984" s="1"/>
     </row>
-    <row r="985" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A985" s="1"/>
-      <c r="B985" s="1"/>
-      <c r="C985" s="1"/>
-      <c r="D985" s="2"/>
-      <c r="E985" s="1"/>
-      <c r="F985" s="3"/>
-      <c r="G985" s="3"/>
-      <c r="H985" s="3"/>
-      <c r="I985" s="2"/>
-      <c r="J985" s="3"/>
-      <c r="K985" s="2"/>
-      <c r="L985" s="3"/>
-      <c r="M985" s="3"/>
-      <c r="N985" s="1"/>
-      <c r="O985" s="1"/>
-      <c r="P985" s="1"/>
-      <c r="Q985" s="1"/>
-      <c r="R985" s="1"/>
-      <c r="S985" s="1"/>
-      <c r="T985" s="1"/>
-      <c r="U985" s="1"/>
-      <c r="V985" s="1"/>
-      <c r="W985" s="1"/>
-      <c r="X985" s="1"/>
-      <c r="Y985" s="1"/>
-      <c r="Z985" s="1"/>
-    </row>
-    <row r="986" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A986" s="1"/>
-      <c r="B986" s="1"/>
-      <c r="C986" s="1"/>
-      <c r="D986" s="2"/>
-      <c r="E986" s="1"/>
-      <c r="F986" s="3"/>
-      <c r="G986" s="3"/>
-      <c r="H986" s="3"/>
-      <c r="I986" s="2"/>
-      <c r="J986" s="3"/>
-      <c r="K986" s="2"/>
-      <c r="L986" s="3"/>
-      <c r="M986" s="3"/>
-      <c r="N986" s="1"/>
-      <c r="O986" s="1"/>
-      <c r="P986" s="1"/>
-      <c r="Q986" s="1"/>
-      <c r="R986" s="1"/>
-      <c r="S986" s="1"/>
-      <c r="T986" s="1"/>
-      <c r="U986" s="1"/>
-      <c r="V986" s="1"/>
-      <c r="W986" s="1"/>
-      <c r="X986" s="1"/>
-      <c r="Y986" s="1"/>
-      <c r="Z986" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-  </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C43:C986 C1:C31" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C41:C984 C1:C29" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E986" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E984" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F986" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F984" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H986" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H984" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
@@ -28498,13 +28396,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -28535,7 +28433,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>

--- a/data-raw/metadata/feather_recapture_metadata.xlsx
+++ b/data-raw/metadata/feather_recapture_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-feather-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D6D12C-0F30-C24A-BE71-6312AAE4ABA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CB4BED-2333-FF42-AE02-39E1E21C6F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -110,12 +110,6 @@
   </si>
   <si>
     <t>Life stage of the fish. Levels = c("Not recorded", "Smolt", "Parr", "Fry", "Button-up fry", "Silvery parr", "Adult", "Juvenile", "Ammocoete", "Yearling", "Yolk sac fry (alevin)")</t>
-  </si>
-  <si>
-    <t>mort</t>
-  </si>
-  <si>
-    <t>Whether fish died due to being captured or handled.  Levels = c("Yes", "No")</t>
   </si>
   <si>
     <t>forkLength</t>
@@ -298,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -323,8 +317,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,11 +532,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z984"/>
+  <dimension ref="A1:Z983"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -623,16 +615,16 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -667,7 +659,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>18</v>
@@ -705,7 +697,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>18</v>
@@ -737,13 +729,13 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
@@ -781,7 +773,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
@@ -810,16 +802,16 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>18</v>
@@ -857,7 +849,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>18</v>
@@ -895,7 +887,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>18</v>
@@ -930,22 +922,32 @@
         <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -962,37 +964,37 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
       <c r="K11" s="2"/>
       <c r="L11" s="3">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="M11" s="3">
-        <v>75</v>
+        <v>349</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1010,82 +1012,72 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>32</v>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="5" t="s">
+        <v>39</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>63</v>
+      <c r="K12" s="6"/>
+      <c r="L12" s="11">
+        <v>36196.427083333336</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>37</v>
+      <c r="M12" s="11">
+        <v>44673.492974537039</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>349</v>
-      </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="J13" s="5"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="11">
-        <v>36196.427083333336</v>
-      </c>
-      <c r="M13" s="11">
-        <v>44673.492974537039</v>
-      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -1105,51 +1097,51 @@
         <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>18</v>
@@ -1181,13 +1173,13 @@
         <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>18</v>
@@ -1216,16 +1208,16 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>18</v>
@@ -1254,16 +1246,16 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>18</v>
@@ -1292,16 +1284,16 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>18</v>
@@ -1329,21 +1321,11 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A20" s="4"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1367,7 +1349,7 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
@@ -1395,7 +1377,7 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
@@ -1423,7 +1405,6 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
@@ -1451,7 +1432,7 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
@@ -2403,7 +2384,7 @@
       <c r="Z57" s="1"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="4"/>
+      <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="2"/>
@@ -28330,46 +28311,18 @@
       <c r="Y983" s="1"/>
       <c r="Z983" s="1"/>
     </row>
-    <row r="984" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A984" s="1"/>
-      <c r="B984" s="1"/>
-      <c r="C984" s="1"/>
-      <c r="D984" s="2"/>
-      <c r="E984" s="1"/>
-      <c r="F984" s="3"/>
-      <c r="G984" s="3"/>
-      <c r="H984" s="3"/>
-      <c r="I984" s="2"/>
-      <c r="J984" s="3"/>
-      <c r="K984" s="2"/>
-      <c r="L984" s="3"/>
-      <c r="M984" s="3"/>
-      <c r="N984" s="1"/>
-      <c r="O984" s="1"/>
-      <c r="P984" s="1"/>
-      <c r="Q984" s="1"/>
-      <c r="R984" s="1"/>
-      <c r="S984" s="1"/>
-      <c r="T984" s="1"/>
-      <c r="U984" s="1"/>
-      <c r="V984" s="1"/>
-      <c r="W984" s="1"/>
-      <c r="X984" s="1"/>
-      <c r="Y984" s="1"/>
-      <c r="Z984" s="1"/>
-    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C41:C984 C1:C29" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C40:C983 C1:C28" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E984" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E983" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F984" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F983" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H984" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H983" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
@@ -28396,13 +28349,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -28433,7 +28386,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
